--- a/year_data/year-1402.xlsx
+++ b/year_data/year-1402.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="23">
   <si>
     <t>incomes</t>
   </si>
@@ -58,10 +58,22 @@
     <t>adjust</t>
   </si>
   <si>
+    <t>incomes_total</t>
+  </si>
+  <si>
+    <t>incomes_tot_per</t>
+  </si>
+  <si>
     <t>incomes_mean</t>
   </si>
   <si>
     <t>incomes_mean_per</t>
+  </si>
+  <si>
+    <t>costs_total</t>
+  </si>
+  <si>
+    <t>costs_tot_per</t>
   </si>
   <si>
     <t>costs_mean</t>
@@ -1706,13 +1718,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1740,8 +1752,20 @@
       <c r="I1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1769,8 +1793,20 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1783,8 +1819,20 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1797,8 +1845,20 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1811,8 +1871,20 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1825,8 +1897,20 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1839,8 +1923,20 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1853,8 +1949,20 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1867,8 +1975,20 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1881,8 +2001,20 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1895,8 +2027,20 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1909,8 +2053,20 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1923,8 +2079,20 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1937,8 +2105,20 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1951,8 +2131,20 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1965,8 +2157,20 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1979,8 +2183,20 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1993,8 +2209,20 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2007,12 +2235,30 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
     </row>
